--- a/Result_data/Time.xlsx
+++ b/Result_data/Time.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Learner Name</t>
   </si>
@@ -33,19 +33,7 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Kmeans+SVM (DE)</t>
-  </si>
-  <si>
-    <t>SVM(DE)</t>
-  </si>
-  <si>
     <t>KNN</t>
-  </si>
-  <si>
-    <t>Kmeans+KNN(DE)</t>
-  </si>
-  <si>
-    <t>KNN(DE)</t>
   </si>
   <si>
     <t>KMeans_SVM</t>
@@ -55,6 +43,24 @@
   </si>
   <si>
     <t>CNN</t>
+  </si>
+  <si>
+    <t>Kmeans_DE_SVM</t>
+  </si>
+  <si>
+    <t>DE_SVM</t>
+  </si>
+  <si>
+    <t>Kmeans_DE_KNN</t>
+  </si>
+  <si>
+    <t>DE_KNN</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -252,6 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,13 +341,7 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -360,9 +361,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -372,6 +371,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -386,9 +386,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -407,19 +407,19 @@
                   <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Kmeans+SVM (DE)</c:v>
+                  <c:v>Kmeans_DE_SVM</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SVM(DE)</c:v>
+                  <c:v>DE_SVM</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kmeans+KNN(DE)</c:v>
+                  <c:v>Kmeans_DE_KNN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>KNN(DE)</c:v>
+                  <c:v>DE_KNN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>KMeans_SVM</c:v>
@@ -470,6 +470,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -477,7 +478,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
+        <c:gapWidth val="100"/>
         <c:axId val="589877024"/>
         <c:axId val="589878664"/>
       </c:barChart>
@@ -494,11 +495,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -510,11 +511,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -538,6 +537,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -554,11 +567,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -595,11 +606,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -615,28 +624,609 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>9.82</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>52.19</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>743.33</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10256393431590281"/>
+                  <c:y val="-7.4752789184704548E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0.53</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>63.84</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>70.3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>44.87</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>43.64</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50400</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FAD8-4422-84D8-C752D2BFBB50}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kmeans_DE_SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DE_SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kmeans_DE_KNN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DE_KNN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KMeans_SVM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>KMeans_KNN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99211148778694969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7175872968554604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8658912710490463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27572413039921095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.805092878342673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8469553250198238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6519560695330742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6398847419163043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.702430536445525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAD8-4422-84D8-C752D2BFBB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="428931832"/>
+        <c:axId val="428927568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428931832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428927568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428927568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428931832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -698,34 +1288,70 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -733,45 +1359,35 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -780,15 +1396,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -800,9 +1423,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -810,9 +1433,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -820,12 +1443,490 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -837,10 +1938,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -849,17 +1950,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -877,18 +1977,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -907,13 +2010,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -925,14 +2029,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -946,8 +2050,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -961,6 +2066,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -972,9 +2083,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -989,13 +2100,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1007,14 +2119,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1026,13 +2138,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1041,13 +2154,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1055,7 +2169,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1068,21 +2182,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1090,14 +2194,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1109,19 +2213,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1137,6 +2234,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1145,8 +2243,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1162,13 +2261,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1177,8 +2277,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1190,6 +2291,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1227,6 +2334,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB873EC-6C91-4958-9DCD-A84548DF8057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1498,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +2654,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,8 +2664,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1533,10 +2679,18 @@
         <f>$B$10/B2</f>
         <v>5132.3828920570268</v>
       </c>
+      <c r="D2">
+        <f>LOG(B2,2)</f>
+        <v>3.2957230245399685</v>
+      </c>
+      <c r="E2">
+        <f>LOG10(B2)</f>
+        <v>0.99211148778694969</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>52.19</v>
@@ -1545,10 +2699,18 @@
         <f t="shared" ref="C3:C10" si="0">$B$10/B3</f>
         <v>965.70224180877563</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">LOG(B3,2)</f>
+        <v>5.7057014968457942</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="2">LOG10(B3)</f>
+        <v>1.7175872968554604</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>734.33</v>
@@ -1557,10 +2719,18 @@
         <f t="shared" si="0"/>
         <v>68.633992891479309</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>9.52028473019028</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2.8658912710490463</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>0.53</v>
@@ -1569,10 +2739,18 @@
         <f t="shared" si="0"/>
         <v>95094.339622641506</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-0.91593573521152549</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.27572413039921095</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>63.84</v>
@@ -1581,10 +2759,18 @@
         <f t="shared" si="0"/>
         <v>789.47368421052624</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5.9963887464476215</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.805092878342673</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
         <v>70.3</v>
@@ -1593,10 +2779,18 @@
         <f t="shared" si="0"/>
         <v>716.92745376955907</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6.1354527841851727</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1.8469553250198238</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>44.87</v>
@@ -1605,10 +2799,18 @@
         <f t="shared" si="0"/>
         <v>1123.2449297971918</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.4876792789016209</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.6519560695330742</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9">
         <v>43.64</v>
@@ -1617,10 +2819,18 @@
         <f t="shared" si="0"/>
         <v>1154.903758020165</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5.4475791965488822</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1.6398847419163043</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11">
         <f>14*3600</f>
@@ -1630,9 +2840,105 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D10">
+        <f>LOG(B10,2)</f>
+        <v>15.621136113274641</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.702430536445525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B4/B3</f>
+        <v>14.070319984671395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.99211148778694969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.7175872968554604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2.8658912710490463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13">
+        <v>-0.27572413039921095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.805092878342673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.8469553250198238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1.6519560695330742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1.6398847419163043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4.702430536445525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>